--- a/biology/Zoologie/Cheiridium_museorum/Cheiridium_museorum.xlsx
+++ b/biology/Zoologie/Cheiridium_museorum/Cheiridium_museorum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cheiridium museorum est une espèce de pseudoscorpions de la famille des Cheiridiidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en zone paléarctique[1]. Elle a été observée en Irlande, au Royaume-Uni, en Norvège, en Suède, en Finlande, en Lettonie, au Danemark, en Pologne, en Allemagne, aux Pays-Bas, en Belgique, en France, en Espagne, en Italie, en Suisse, en Autriche, en Tchéquie, en Slovaquie, en Hongrie, en Croatie, au Monténégro, en Roumanie, en Bulgarie, en Grèce, en Turquie, en Russie, au Kirghizistan, au Pakistan, en Inde et en Algérie.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en zone paléarctique. Elle a été observée en Irlande, au Royaume-Uni, en Norvège, en Suède, en Finlande, en Lettonie, au Danemark, en Pologne, en Allemagne, aux Pays-Bas, en Belgique, en France, en Espagne, en Italie, en Suisse, en Autriche, en Tchéquie, en Slovaquie, en Hongrie, en Croatie, au Monténégro, en Roumanie, en Bulgarie, en Grèce, en Turquie, en Russie, au Kirghizistan, au Pakistan, en Inde et en Algérie.
 Elle a été introduite en Afrique du Sud, au Mozambique, au Congo-Kinshasa et aux États-Unis.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Leach, 1817 : The zoological miscellany; being descriptions of new or interesting animals. London, vol. 3, p. 1-151 (texte intégral).</t>
         </is>
